--- a/data/trans_orig/Q25B01-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q25B01-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>24.56428285563384</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20.64892733150037</v>
+        <v>20.64892733150036</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>13.64850422365878</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>22.09857828123628</v>
+        <v>22.00819707302414</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>21.86293383403173</v>
+        <v>21.76070867678346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22.46634657802618</v>
+        <v>22.59544875475003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.82157216158608</v>
+        <v>17.86271509450017</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>11.13587615293207</v>
+        <v>11.42786827261759</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.96243915352165</v>
+        <v>11.92035454068011</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>12.77782708701366</v>
+        <v>12.70835519204041</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.33198549231812</v>
+        <v>10.47428183879302</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>19.2021066869071</v>
+        <v>19.27490124361114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18.71581105392444</v>
+        <v>18.77331053575353</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19.57098518591597</v>
+        <v>19.69605723681254</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>15.7677793826804</v>
+        <v>15.75453420623378</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.66626650541554</v>
+        <v>26.57428212787941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.8089499989513</v>
+        <v>26.88866550738512</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.84310202557026</v>
+        <v>26.8800359243416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.54012498766922</v>
+        <v>23.42089283798818</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.10597747998759</v>
+        <v>17.3887222317525</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.89519903427888</v>
+        <v>16.59454780108901</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.03909751756549</v>
+        <v>17.19755582433283</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.51330114591539</v>
+        <v>15.65412055353457</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>23.00127536266871</v>
+        <v>23.18021493809122</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22.33338395623957</v>
+        <v>22.38065222418078</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23.02968811002335</v>
+        <v>23.12220007252251</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>20.04554982385491</v>
+        <v>19.9837344540895</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>20.6691460988326</v>
+        <v>20.67098795044105</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>22.08962322490335</v>
+        <v>22.02172648102688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19.91260465980196</v>
+        <v>19.79191242053414</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18.17968987398883</v>
+        <v>18.14133104915987</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>11.01819840372727</v>
+        <v>11.09877887043397</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>12.78032884776219</v>
+        <v>12.75087114392976</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.92281105926023</v>
+        <v>10.84174669082413</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>10.6973406607085</v>
+        <v>10.84905054785976</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>18.34505716372649</v>
+        <v>18.36162651926557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19.24899716065638</v>
+        <v>19.12062207051756</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.85960405129483</v>
+        <v>16.81752775489282</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.29004584920924</v>
+        <v>16.23984814139417</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>24.22476002575972</v>
+        <v>24.18445099238732</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>26.12159637270015</v>
+        <v>26.30509187784065</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24.52885552600232</v>
+        <v>24.58906481948006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.95236458220306</v>
+        <v>22.05238951140482</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>14.9392097279302</v>
+        <v>14.94815282098548</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.6999345378849</v>
+        <v>16.62987378250309</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>14.06912121778897</v>
+        <v>14.04724527954652</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>14.02059819041422</v>
+        <v>13.96765162225665</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>21.2455201449485</v>
+        <v>21.2292655300504</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22.40878833400243</v>
+        <v>22.51874512718474</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20.33894985420436</v>
+        <v>20.2978825189292</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>19.14240395815284</v>
+        <v>19.12272924558254</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>19.60128857825738</v>
+        <v>19.88102848388235</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>19.87844775011569</v>
+        <v>19.85330419462803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17.54425039937282</v>
+        <v>17.53961213078778</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.80625930985156</v>
+        <v>17.7025176653119</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>10.32301647760852</v>
+        <v>10.20684547393435</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.29861292195552</v>
+        <v>10.36615549354793</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>11.69078935078626</v>
+        <v>11.57259635891285</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.93513625934573</v>
+        <v>10.91803024043713</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.377303928068</v>
+        <v>17.47969168073436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.38429642939742</v>
+        <v>17.41150797114496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15.72643047172574</v>
+        <v>15.85602842569812</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>15.79152175403606</v>
+        <v>15.75740523036781</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.79401243053385</v>
+        <v>23.04266718029869</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>23.17009785059213</v>
+        <v>23.20549697695295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.85532074165476</v>
+        <v>21.68821140212092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.8386604599459</v>
+        <v>21.72769010560096</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.41646231043658</v>
+        <v>14.33068802386978</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.10939665971143</v>
+        <v>14.12472751775933</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.08219284325587</v>
+        <v>15.01815035145675</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.72577493726247</v>
+        <v>14.6672495947693</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.1159757946672</v>
+        <v>20.19628931179805</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20.3420281006629</v>
+        <v>20.09539048947711</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18.70073088920746</v>
+        <v>18.96118232250214</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.94225233770492</v>
+        <v>18.62620973429699</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>18.85116759388457</v>
+        <v>19.30404056365511</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>20.58511015477396</v>
+        <v>20.18709687434145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.20648357057047</v>
+        <v>16.18242157218188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19.95318864621289</v>
+        <v>19.69012477368939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>10.23698119981343</v>
+        <v>10.25639834023251</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.55908929118517</v>
+        <v>10.4849430259417</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>10.53643820281746</v>
+        <v>10.36260235636748</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>10.63363597724712</v>
+        <v>10.60204447198717</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.79015263981147</v>
+        <v>16.87875215912602</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.67460350608863</v>
+        <v>17.53400387007103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14.41878319637918</v>
+        <v>14.38901825309042</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.4274270539457</v>
+        <v>16.5315046568265</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>25.10584737018011</v>
+        <v>25.81246007972948</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.10616448731531</v>
+        <v>27.13520727553558</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.57612731937041</v>
+        <v>21.63008057345927</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23.60590218786902</v>
+        <v>23.39353814382799</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>14.0281453660079</v>
+        <v>14.20820392403834</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>15.28548595560166</v>
+        <v>15.2110877221344</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>16.36390772971388</v>
+        <v>16.1031523668865</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.257682974729</v>
+        <v>13.11427971750071</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>21.54012309121685</v>
+        <v>21.57410681973089</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22.76373165141678</v>
+        <v>23.27581423063867</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18.58935561914074</v>
+        <v>18.49649170148644</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>19.11770291278277</v>
+        <v>19.12766838843884</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.34888312610942</v>
+        <v>21.40389648001693</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>21.96825946393141</v>
+        <v>22.10667222268862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20.32033382818689</v>
+        <v>20.44418498689447</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19.53803649512023</v>
+        <v>19.5431070919173</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>11.55805540273743</v>
+        <v>11.7255267932238</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.34522576698508</v>
+        <v>12.37071211155325</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>12.39955168882581</v>
+        <v>12.35202895887403</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.42226362621241</v>
+        <v>11.47376239925623</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>18.64932302084429</v>
+        <v>18.70521022491192</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19.17694155783814</v>
+        <v>19.17119716382514</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.74533985606253</v>
+        <v>17.71534346001992</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.87090273760327</v>
+        <v>16.83062128764668</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.35477884769725</v>
+        <v>23.36623653351807</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.30962011099966</v>
+        <v>24.53848457027854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.71976714546357</v>
+        <v>22.86021488976619</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.59398784224397</v>
+        <v>21.55650082383602</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.76148409587706</v>
+        <v>13.94162776506065</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.49943273956899</v>
+        <v>14.5358140454683</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.48002392401796</v>
+        <v>14.41966263429867</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.14051511247546</v>
+        <v>13.20668541124213</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.35953390589474</v>
+        <v>20.39265283509172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21.07640611159389</v>
+        <v>20.92633883820392</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19.57839627870789</v>
+        <v>19.46893228033964</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>18.45314310144785</v>
+        <v>18.3601150603588</v>
       </c>
     </row>
     <row r="19">
